--- a/src/test/Resources/employees.xlsx
+++ b/src/test/Resources/employees.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clarusway\IdeaProjects\CWCucumberProject\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MONSTER\IdeaProjects\CucumberProject\src\test\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA639CC5-5781-4AA8-B30D-43C26104FBA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561F2DFF-6B75-430B-BAC8-A461BE919BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-21710" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
+    <sheet name="TitlesAndNotes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>first_name</t>
   </si>
@@ -191,6 +192,312 @@
   </si>
   <si>
     <t>2023-12-02</t>
+  </si>
+  <si>
+    <t>Title 1</t>
+  </si>
+  <si>
+    <t>Note 1</t>
+  </si>
+  <si>
+    <t>Title 2</t>
+  </si>
+  <si>
+    <t>Note 2</t>
+  </si>
+  <si>
+    <t>Title 3</t>
+  </si>
+  <si>
+    <t>Note 3</t>
+  </si>
+  <si>
+    <t>Title 4</t>
+  </si>
+  <si>
+    <t>Note 4</t>
+  </si>
+  <si>
+    <t>Title 5</t>
+  </si>
+  <si>
+    <t>Note 5</t>
+  </si>
+  <si>
+    <t>Title 6</t>
+  </si>
+  <si>
+    <t>Note 6</t>
+  </si>
+  <si>
+    <t>Title 7</t>
+  </si>
+  <si>
+    <t>Note 7</t>
+  </si>
+  <si>
+    <t>Title 8</t>
+  </si>
+  <si>
+    <t>Note 8</t>
+  </si>
+  <si>
+    <t>Title 9</t>
+  </si>
+  <si>
+    <t>Note 9</t>
+  </si>
+  <si>
+    <t>Title 10</t>
+  </si>
+  <si>
+    <t>Note 10</t>
+  </si>
+  <si>
+    <t>Title 11</t>
+  </si>
+  <si>
+    <t>Note 11</t>
+  </si>
+  <si>
+    <t>Title 12</t>
+  </si>
+  <si>
+    <t>Note 12</t>
+  </si>
+  <si>
+    <t>Title 13</t>
+  </si>
+  <si>
+    <t>Note 13</t>
+  </si>
+  <si>
+    <t>Title 14</t>
+  </si>
+  <si>
+    <t>Note 14</t>
+  </si>
+  <si>
+    <t>Title 15</t>
+  </si>
+  <si>
+    <t>Note 15</t>
+  </si>
+  <si>
+    <t>Title 16</t>
+  </si>
+  <si>
+    <t>Note 16</t>
+  </si>
+  <si>
+    <t>Title 17</t>
+  </si>
+  <si>
+    <t>Note 17</t>
+  </si>
+  <si>
+    <t>Title 18</t>
+  </si>
+  <si>
+    <t>Note 18</t>
+  </si>
+  <si>
+    <t>Title 19</t>
+  </si>
+  <si>
+    <t>Note 19</t>
+  </si>
+  <si>
+    <t>Title 20</t>
+  </si>
+  <si>
+    <t>Note 20</t>
+  </si>
+  <si>
+    <t>Title 21</t>
+  </si>
+  <si>
+    <t>Note 21</t>
+  </si>
+  <si>
+    <t>Title 22</t>
+  </si>
+  <si>
+    <t>Note 22</t>
+  </si>
+  <si>
+    <t>Title 23</t>
+  </si>
+  <si>
+    <t>Note 23</t>
+  </si>
+  <si>
+    <t>Title 24</t>
+  </si>
+  <si>
+    <t>Note 24</t>
+  </si>
+  <si>
+    <t>Title 25</t>
+  </si>
+  <si>
+    <t>Note 25</t>
+  </si>
+  <si>
+    <t>Title 26</t>
+  </si>
+  <si>
+    <t>Note 26</t>
+  </si>
+  <si>
+    <t>Title 27</t>
+  </si>
+  <si>
+    <t>Note 27</t>
+  </si>
+  <si>
+    <t>Title 28</t>
+  </si>
+  <si>
+    <t>Note 28</t>
+  </si>
+  <si>
+    <t>Title 29</t>
+  </si>
+  <si>
+    <t>Note 29</t>
+  </si>
+  <si>
+    <t>Title 30</t>
+  </si>
+  <si>
+    <t>Note 30</t>
+  </si>
+  <si>
+    <t>Title 31</t>
+  </si>
+  <si>
+    <t>Note 31</t>
+  </si>
+  <si>
+    <t>Title 32</t>
+  </si>
+  <si>
+    <t>Note 32</t>
+  </si>
+  <si>
+    <t>Title 33</t>
+  </si>
+  <si>
+    <t>Note 33</t>
+  </si>
+  <si>
+    <t>Title 34</t>
+  </si>
+  <si>
+    <t>Note 34</t>
+  </si>
+  <si>
+    <t>Title 35</t>
+  </si>
+  <si>
+    <t>Note 35</t>
+  </si>
+  <si>
+    <t>Title 36</t>
+  </si>
+  <si>
+    <t>Note 36</t>
+  </si>
+  <si>
+    <t>Title 37</t>
+  </si>
+  <si>
+    <t>Note 37</t>
+  </si>
+  <si>
+    <t>Title 38</t>
+  </si>
+  <si>
+    <t>Note 38</t>
+  </si>
+  <si>
+    <t>Title 39</t>
+  </si>
+  <si>
+    <t>Note 39</t>
+  </si>
+  <si>
+    <t>Title 40</t>
+  </si>
+  <si>
+    <t>Note 40</t>
+  </si>
+  <si>
+    <t>Title 41</t>
+  </si>
+  <si>
+    <t>Note 41</t>
+  </si>
+  <si>
+    <t>Title 42</t>
+  </si>
+  <si>
+    <t>Note 42</t>
+  </si>
+  <si>
+    <t>Title 43</t>
+  </si>
+  <si>
+    <t>Note 43</t>
+  </si>
+  <si>
+    <t>Title 44</t>
+  </si>
+  <si>
+    <t>Note 44</t>
+  </si>
+  <si>
+    <t>Title 45</t>
+  </si>
+  <si>
+    <t>Note 45</t>
+  </si>
+  <si>
+    <t>Title 46</t>
+  </si>
+  <si>
+    <t>Note 46</t>
+  </si>
+  <si>
+    <t>Title 47</t>
+  </si>
+  <si>
+    <t>Note 47</t>
+  </si>
+  <si>
+    <t>Title 48</t>
+  </si>
+  <si>
+    <t>Note 48</t>
+  </si>
+  <si>
+    <t>Title 49</t>
+  </si>
+  <si>
+    <t>Note 49</t>
+  </si>
+  <si>
+    <t>Title 50</t>
+  </si>
+  <si>
+    <t>Note 50</t>
+  </si>
+  <si>
+    <t>Titles</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -491,7 +798,7 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -762,4 +1069,428 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37999EA4-DF96-4BC5-AB79-D4758D07A9EC}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>